--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value271.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value271.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5404783274444096</v>
+        <v>1.688085675239563</v>
       </c>
       <c r="B1">
-        <v>0.7539356853027986</v>
+        <v>1.941734910011292</v>
       </c>
       <c r="C1">
-        <v>1.377547140131552</v>
+        <v>1.99854838848114</v>
       </c>
       <c r="D1">
-        <v>3.062775939286889</v>
+        <v>2.470536231994629</v>
       </c>
       <c r="E1">
-        <v>2.636414867670475</v>
+        <v>3.371030569076538</v>
       </c>
     </row>
   </sheetData>
